--- a/config_10.19/shoping_config.xlsx
+++ b/config_10.19/shoping_config.xlsx
@@ -13879,7 +13879,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="X627" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A635" sqref="A635:XFD646"/>
+      <selection pane="bottomRight" activeCell="AB635" sqref="AB635:AB646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54836,9 +54836,6 @@
       <c r="AA635" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB635" s="34">
-        <v>80</v>
-      </c>
       <c r="AI635" s="34">
         <v>1</v>
       </c>
@@ -54904,9 +54901,6 @@
       <c r="AA636" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB636" s="34">
-        <v>80</v>
-      </c>
       <c r="AI636" s="34">
         <v>1</v>
       </c>
@@ -54972,9 +54966,6 @@
       <c r="AA637" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB637" s="34">
-        <v>80</v>
-      </c>
       <c r="AI637" s="34">
         <v>1</v>
       </c>
@@ -55040,9 +55031,6 @@
       <c r="AA638" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB638" s="34">
-        <v>81</v>
-      </c>
       <c r="AI638" s="34">
         <v>1</v>
       </c>
@@ -55108,9 +55096,6 @@
       <c r="AA639" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB639" s="34">
-        <v>81</v>
-      </c>
       <c r="AI639" s="34">
         <v>1</v>
       </c>
@@ -55176,9 +55161,6 @@
       <c r="AA640" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB640" s="34">
-        <v>81</v>
-      </c>
       <c r="AI640" s="34">
         <v>1</v>
       </c>
@@ -55244,9 +55226,6 @@
       <c r="AA641" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB641" s="34">
-        <v>82</v>
-      </c>
       <c r="AI641" s="34">
         <v>1</v>
       </c>
@@ -55312,9 +55291,6 @@
       <c r="AA642" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB642" s="34">
-        <v>82</v>
-      </c>
       <c r="AI642" s="34">
         <v>1</v>
       </c>
@@ -55380,9 +55356,6 @@
       <c r="AA643" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB643" s="34">
-        <v>82</v>
-      </c>
       <c r="AI643" s="34">
         <v>1</v>
       </c>
@@ -55448,9 +55421,6 @@
       <c r="AA644" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB644" s="34">
-        <v>83</v>
-      </c>
       <c r="AI644" s="34">
         <v>1</v>
       </c>
@@ -55516,9 +55486,6 @@
       <c r="AA645" s="34">
         <v>1635177599</v>
       </c>
-      <c r="AB645" s="34">
-        <v>83</v>
-      </c>
       <c r="AI645" s="34">
         <v>1</v>
       </c>
@@ -55583,9 +55550,6 @@
       </c>
       <c r="AA646" s="34">
         <v>1635177599</v>
-      </c>
-      <c r="AB646" s="34">
-        <v>83</v>
       </c>
       <c r="AI646" s="34">
         <v>1</v>
